--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/components/subnetSelect.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/components/subnetSelect.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,9 +36,6 @@
     <t>create_subnet</t>
   </si>
   <si>
-    <t>No available subnet, please create a new subnet</t>
-  </si>
-  <si>
     <t>all_subnet</t>
   </si>
   <si>
@@ -120,6 +117,10 @@
       </rPr>
       <t>'</t>
     </r>
+  </si>
+  <si>
+    <t>No available subnet, please create subnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -519,7 +520,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -535,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -546,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -557,28 +558,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C4 A1:A4" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C2 A1:A4 C4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>